--- a/docs/詳細設計書/詳細設計書_ログイン画面.xlsx
+++ b/docs/詳細設計書/詳細設計書_ログイン画面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DIGITAL OJT\詳細設計書修正\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E3B49C-097D-3443-8EDF-AC9C4AA6B0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="9" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -202,102 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.1 入力チェック</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力値</t>
-    <rPh sb="0" eb="1">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力値なし</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角スペース</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期表示で、分類情報画面を以下の通り出力する。</t>
-    <rPh sb="6" eb="8">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イカノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -407,33 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力項目「管理者ID」に以下のような入力値がある場合、再認証を促すエラーメッセージを表示する。</t>
-    <rPh sb="5" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインIDまたはパスワードが不正です。</t>
-    <rPh sb="15" eb="17">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.2 認証処理</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>sy</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>認証では、Spring Securityを使用する。</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -478,16 +354,6 @@
       <t>イッティ</t>
     </rPh>
     <rPh sb="15" eb="19">
-      <t>ザイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードが一致しない場合、「ログインIDまたはパスワードが不正です。」のエラーメッセージを表示する。</t>
-    <rPh sb="6" eb="8">
-      <t>イッティ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
       <t>ザイコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -571,12 +437,46 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>初期表示で、ログイン画面を以下の通り出力する。</t>
+    <rPh sb="10" eb="12">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1 認証処理</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが一致しない場合、「管理者IDとパスワードの組み合わせが間違っています。」のエラーメッセージを表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>イッティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>溝口</t>
+    <rPh sb="0" eb="2">
+      <t>ミゾグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -831,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +864,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,42 +927,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,44 +942,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,10 +957,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,6 +1008,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,47 +1035,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2987,14 +2860,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>310874</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>173935</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -3011,8 +2884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6083300" y="3124200"/>
-          <a:ext cx="177800" cy="1727200"/>
+          <a:off x="5744265" y="2813326"/>
+          <a:ext cx="177800" cy="1688548"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6301,263 +6174,263 @@
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="53" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="53" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="57" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="58">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="50">
         <v>45566</v>
       </c>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="53" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="53" t="s">
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="57" t="s">
-        <v>49</v>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="45" t="s">
+        <v>31</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="53" t="s">
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="53" t="s">
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53" t="s">
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="57" t="s">
-        <v>50</v>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="45" t="s">
+        <v>32</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60" t="s">
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-    </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+    </row>
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6581,7 +6454,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
       <c r="W6" s="21" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
@@ -6602,11 +6475,11 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
       <c r="W7" s="22" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -6626,16 +6499,16 @@
       <c r="AM7" s="6"/>
       <c r="AO7" s="7"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
       <c r="W8" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="22"/>
@@ -6657,7 +6530,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="V10" s="7"/>
       <c r="W10" s="22"/>
@@ -6679,7 +6552,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="22"/>
@@ -6701,7 +6574,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="V12" s="7"/>
       <c r="W12" s="22"/>
@@ -6723,7 +6596,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="V13" s="7"/>
       <c r="W13" s="22"/>
@@ -6745,7 +6618,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="V14" s="7"/>
       <c r="W14" s="22"/>
@@ -6767,7 +6640,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="22"/>
@@ -6789,7 +6662,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="22"/>
@@ -6811,7 +6684,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="22"/>
@@ -6833,7 +6706,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="22"/>
@@ -6855,7 +6728,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -6898,25 +6771,25 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="10"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="60" t="s">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="60" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="60"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="24" t="s">
         <v>14</v>
       </c>
@@ -6929,41 +6802,41 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="61" t="s">
+      <c r="Q20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-    </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="57">
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="49"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="49"/>
+      <c r="AI20" s="49"/>
+      <c r="AJ20" s="49"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="49"/>
+      <c r="AO20" s="49"/>
+    </row>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="45">
         <v>1</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="17" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -6972,21 +6845,21 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="57" t="s">
-        <v>44</v>
+      <c r="K21" s="45" t="s">
+        <v>26</v>
       </c>
-      <c r="L21" s="57"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="18"/>
@@ -7014,9 +6887,9 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="19"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="63"/>
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -7025,8 +6898,8 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -7057,9 +6930,9 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="63"/>
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -7068,8 +6941,8 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -7100,9 +6973,9 @@
       <c r="AN23" s="18"/>
       <c r="AO23" s="19"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -7111,8 +6984,8 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -7143,9 +7016,9 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="19"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -7154,8 +7027,8 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -7186,9 +7059,9 @@
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -7197,8 +7070,8 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -7229,9 +7102,9 @@
       <c r="AN26" s="18"/>
       <c r="AO26" s="19"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -7240,8 +7113,8 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -7272,9 +7145,9 @@
       <c r="AN27" s="18"/>
       <c r="AO27" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -7283,8 +7156,8 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -7315,9 +7188,9 @@
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -7326,8 +7199,8 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -7358,9 +7231,9 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="19"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -7369,8 +7242,8 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -7401,9 +7274,9 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="19"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -7412,8 +7285,8 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -7444,9 +7317,9 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -7455,8 +7328,8 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -7487,9 +7360,9 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="19"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7532,38 +7405,12 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A5:V5"/>
-    <mergeCell ref="W5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="Q20:AO20"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -7575,17 +7422,43 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="W5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="Q20:AO20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K32:L32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7600,234 +7473,238 @@
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="2"/>
-    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="3.7265625" style="2"/>
+    <col min="9" max="9" width="3.7265625" style="2" customWidth="1"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="53" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="53" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="57" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="58">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="50">
         <v>45566</v>
       </c>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="53" t="s">
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="53" t="s">
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="57" t="s">
-        <v>47</v>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="45" t="s">
+        <v>29</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="53" t="s">
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="53" t="s">
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53" t="s">
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="50">
+        <v>45614</v>
+      </c>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="57" t="s">
-        <v>50</v>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="45" t="s">
+        <v>32</v>
       </c>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="66" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="65" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K5" s="65"/>
       <c r="L5" s="65"/>
@@ -7861,54 +7738,54 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
       <c r="AL6" s="69"/>
-      <c r="AM6" s="60" t="s">
+      <c r="AM6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-    </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+    </row>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7951,10 +7828,10 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7995,7 +7872,7 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22"/>
       <c r="B9" s="1"/>
       <c r="C9" s="30"/>
@@ -8037,7 +7914,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22"/>
       <c r="B10" s="1"/>
       <c r="C10" s="33"/>
@@ -8079,7 +7956,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="33"/>
@@ -8121,7 +7998,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="33"/>
@@ -8163,7 +8040,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="1"/>
       <c r="C13" s="33"/>
@@ -8205,7 +8082,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="1"/>
       <c r="C14" s="33"/>
@@ -8247,7 +8124,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="1"/>
       <c r="C15" s="33"/>
@@ -8289,7 +8166,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="33"/>
@@ -8331,7 +8208,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="33"/>
@@ -8373,7 +8250,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="1"/>
       <c r="C18" s="33"/>
@@ -8415,7 +8292,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="1"/>
       <c r="C19" s="33"/>
@@ -8457,7 +8334,7 @@
       <c r="AM19" s="6"/>
       <c r="AO19" s="7"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="33"/>
@@ -8499,7 +8376,7 @@
       <c r="AM20" s="6"/>
       <c r="AO20" s="7"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22"/>
       <c r="B21" s="1"/>
       <c r="C21" s="33"/>
@@ -8541,7 +8418,7 @@
       <c r="AM21" s="6"/>
       <c r="AO21" s="7"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
       <c r="C22" s="33"/>
@@ -8583,7 +8460,7 @@
       <c r="AM22" s="6"/>
       <c r="AO22" s="7"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
       <c r="C23" s="33"/>
@@ -8625,7 +8502,7 @@
       <c r="AM23" s="6"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
       <c r="C24" s="33"/>
@@ -8667,7 +8544,7 @@
       <c r="AM24" s="6"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="33"/>
@@ -8709,7 +8586,7 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="7"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="33"/>
@@ -8751,7 +8628,7 @@
       <c r="AM26" s="6"/>
       <c r="AO26" s="7"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="33"/>
@@ -8793,7 +8670,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="7"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="33"/>
@@ -8835,7 +8712,7 @@
       <c r="AM28" s="6"/>
       <c r="AO28" s="7"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -8877,7 +8754,7 @@
       <c r="AM29" s="6"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -8919,7 +8796,7 @@
       <c r="AM30" s="6"/>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -8963,6 +8840,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AM6:AO6"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
@@ -8975,22 +8863,11 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:AL6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8999,239 +8876,243 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
+        <v>30</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="100" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="54" t="s">
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="88" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="86" t="s">
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88" t="s">
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="108">
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="80">
         <v>45566</v>
       </c>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="110"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="100" t="s">
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="82"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="54" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="113"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="100" t="s">
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="85"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="63" t="s">
-        <v>49</v>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="46" t="s">
+        <v>31</v>
       </c>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="88" t="s">
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88" t="s">
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="96"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="100" t="s">
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="80">
+        <v>45614</v>
+      </c>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="97"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="63" t="s">
-        <v>50</v>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="46" t="s">
+        <v>32</v>
       </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="99"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="100"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="69"/>
       <c r="D5" s="66" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="62"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="69"/>
       <c r="J5" s="66" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
@@ -9265,61 +9146,61 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
       <c r="AL6" s="69"/>
-      <c r="AM6" s="60" t="s">
+      <c r="AM6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-    </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+    </row>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="21"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -9344,28 +9225,28 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="13"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="87"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="71"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="22"/>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -9389,25 +9270,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
-      <c r="AJ8" s="71"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="72"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="94"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -9432,29 +9313,29 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="71"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="72"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="94"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -9477,25 +9358,25 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="72"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="94"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="22"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -9520,28 +9401,28 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="72"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="94"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="22"/>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="27"/>
@@ -9565,28 +9446,28 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="72"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="93"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="94"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -9608,29 +9489,29 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="72"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="93"/>
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="94"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -9653,30 +9534,30 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="72"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="93"/>
+      <c r="AH14" s="93"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="94"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
       <c r="H15" s="22"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -9698,1401 +9579,676 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="72"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="93"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="93"/>
+      <c r="AJ15" s="93"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="94"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="22"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="105" t="s">
-        <v>27</v>
+      <c r="K16" s="1" t="s">
+        <v>48</v>
       </c>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="102"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="72"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="94"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="22"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="80"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="72"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="94"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="22"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="76" t="s">
-        <v>29</v>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
       </c>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="80"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="72"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="94"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="92"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="22"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="76" t="s">
-        <v>33</v>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
       </c>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="80"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="72"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="93"/>
+      <c r="AH19" s="93"/>
+      <c r="AI19" s="93"/>
+      <c r="AJ19" s="93"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="94"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="22"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="80"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="72"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+      <c r="AI20" s="93"/>
+      <c r="AJ20" s="93"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="22"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="76" t="s">
-        <v>39</v>
+      <c r="K21" s="1" t="s">
+        <v>45</v>
       </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="80"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="72"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+      <c r="AI21" s="93"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="94"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="76" t="s">
-        <v>40</v>
+      <c r="K22" s="1" t="s">
+        <v>58</v>
       </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="80"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="72"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="94"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="92"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="22"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="80"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="72"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="93"/>
+      <c r="AL23" s="94"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="92"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="22"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="73" t="s">
-        <v>43</v>
+      <c r="K24" s="1" t="s">
+        <v>46</v>
       </c>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="80"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="72"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="94"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="22"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="73" t="s">
-        <v>42</v>
+      <c r="K25" s="1" t="s">
+        <v>47</v>
       </c>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="80"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="72"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="93"/>
+      <c r="AJ25" s="93"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="94"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="92"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="22"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="80"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="71"/>
-      <c r="AK26" s="71"/>
-      <c r="AL26" s="72"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="93"/>
+      <c r="AK26" s="93"/>
+      <c r="AL26" s="94"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="92"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="80"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="71"/>
-      <c r="AL27" s="72"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="93"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="94"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="80"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="70"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="71"/>
-      <c r="AL28" s="72"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="93"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="93"/>
+      <c r="AL28" s="94"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="71"/>
-      <c r="AL29" s="72"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="14"/>
-    </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="72"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="14"/>
-    </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="71"/>
-      <c r="AL31" s="72"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="14"/>
-    </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="71"/>
-      <c r="AL32" s="72"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="14"/>
-    </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="71"/>
-      <c r="AL33" s="72"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="14"/>
-    </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="71"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="71"/>
-      <c r="AK34" s="71"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="14"/>
-    </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
-      <c r="A35" s="70"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="71"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="14"/>
-    </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="70"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="72"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="14"/>
-    </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="71"/>
-      <c r="AK37" s="71"/>
-      <c r="AL37" s="72"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="14"/>
-    </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="72"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="14"/>
-    </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
-      <c r="A39" s="70"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="72"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="14"/>
-    </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="72"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="14"/>
-    </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71"/>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="72"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="14"/>
-    </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="72"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="14"/>
-    </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71"/>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="72"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="14"/>
-    </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71"/>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="72"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="14"/>
-    </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="84"/>
-      <c r="AG45" s="84"/>
-      <c r="AH45" s="84"/>
-      <c r="AI45" s="84"/>
-      <c r="AJ45" s="84"/>
-      <c r="AK45" s="84"/>
-      <c r="AL45" s="85"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="15"/>
-      <c r="AO45" s="16"/>
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P18:Z18"/>
-    <mergeCell ref="P16:Z16"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="AF45:AL45"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="AF43:AL43"/>
+  <mergeCells count="69">
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="AF23:AL23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="AF27:AL27"/>
     <mergeCell ref="AE3:AH4"/>
     <mergeCell ref="AI3:AK4"/>
     <mergeCell ref="AL3:AO4"/>
@@ -11106,119 +10262,25 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:N5"/>
     <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="AF30:AL30"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="AF36:AL36"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="AF20:AL20"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
     <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="AF44:AL44"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="P22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="AF41:AL41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="AF42:AL42"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="P28:Z28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="P21:Z21"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="P26:Z26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="P20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="AF23:AL23"/>
-    <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="AF31:AL31"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="P27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AF24:AL24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="P25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="AF39:AL39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="AF40:AL40"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="AF32:AL32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="AF33:AL33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="AF34:AL34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="AF35:AL35"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="AF38:AL38"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AD4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11229,220 +10291,220 @@
   </sheetPr>
   <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>71</v>
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
+        <v>49</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="100" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="54" t="s">
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="88" t="s">
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="86" t="s">
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88" t="s">
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="108">
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="80">
         <v>45566</v>
       </c>
-      <c r="AM1" s="109"/>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="110"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="100" t="s">
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="82"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="54" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="112"/>
-      <c r="AN2" s="112"/>
-      <c r="AO2" s="113"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="100" t="s">
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="85"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="63" t="s">
-        <v>49</v>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="46" t="s">
+        <v>31</v>
       </c>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="88" t="s">
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88" t="s">
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="96"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="100" t="s">
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="97"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="63" t="s">
-        <v>50</v>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="46" t="s">
+        <v>32</v>
       </c>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="99"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="100"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="21"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -11485,10 +10547,10 @@
       <c r="AN5" s="12"/>
       <c r="AO5" s="13"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="22"/>
       <c r="B6" s="43" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -11530,7 +10592,7 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="14"/>
     </row>
-    <row r="7" spans="1:41" ht="21" customHeight="1">
+    <row r="7" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -11572,7 +10634,7 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="14"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11590,7 +10652,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -11614,14 +10676,14 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -11656,7 +10718,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11697,7 +10759,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11738,7 +10800,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
@@ -11778,11 +10840,11 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -11821,7 +10883,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11862,11 +10924,11 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -11905,7 +10967,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
@@ -11945,7 +11007,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -11986,7 +11048,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12027,7 +11089,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12068,7 +11130,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12109,7 +11171,7 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12150,7 +11212,7 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12193,7 +11255,7 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12236,10 +11298,10 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="43" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -12281,7 +11343,7 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12322,7 +11384,7 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -12363,7 +11425,7 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -12404,7 +11466,7 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -12445,7 +11507,7 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -12486,7 +11548,7 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="14"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -12527,7 +11589,7 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -12568,7 +11630,7 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -12609,7 +11671,7 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -12650,7 +11712,7 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -12691,7 +11753,7 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="14"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -12732,7 +11794,7 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="14"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -12773,7 +11835,7 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="14"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -12814,7 +11876,7 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="14"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -12855,7 +11917,7 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="14"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -12896,7 +11958,7 @@
       <c r="AN39" s="1"/>
       <c r="AO39" s="14"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -12937,7 +11999,7 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="14"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -12978,7 +12040,7 @@
       <c r="AN41" s="1"/>
       <c r="AO41" s="14"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -13019,7 +12081,7 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="14"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -13060,7 +12122,7 @@
       <c r="AN43" s="1"/>
       <c r="AO43" s="14"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -13101,7 +12163,7 @@
       <c r="AN44" s="1"/>
       <c r="AO44" s="14"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -13142,7 +12204,7 @@
       <c r="AN45" s="1"/>
       <c r="AO45" s="14"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -13183,7 +12245,7 @@
       <c r="AN46" s="1"/>
       <c r="AO46" s="14"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -13224,7 +12286,7 @@
       <c r="AN47" s="1"/>
       <c r="AO47" s="14"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -13234,7 +12296,7 @@
       <c r="AN48" s="1"/>
       <c r="AO48" s="14"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -13277,7 +12339,7 @@
       <c r="AN49" s="1"/>
       <c r="AO49" s="14"/>
     </row>
-    <row r="50" spans="1:41" ht="20" customHeight="1">
+    <row r="50" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -13320,7 +12382,7 @@
       <c r="AN50" s="1"/>
       <c r="AO50" s="14"/>
     </row>
-    <row r="51" spans="1:41" ht="20" customHeight="1">
+    <row r="51" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -13363,7 +12425,7 @@
       <c r="AN51" s="1"/>
       <c r="AO51" s="14"/>
     </row>
-    <row r="52" spans="1:41" ht="20" customHeight="1">
+    <row r="52" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -13406,7 +12468,7 @@
       <c r="AN52" s="1"/>
       <c r="AO52" s="14"/>
     </row>
-    <row r="53" spans="1:41" ht="20" customHeight="1">
+    <row r="53" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -13449,7 +12511,7 @@
       <c r="AN53" s="1"/>
       <c r="AO53" s="14"/>
     </row>
-    <row r="54" spans="1:41" ht="20" customHeight="1">
+    <row r="54" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -13492,7 +12554,7 @@
       <c r="AN54" s="1"/>
       <c r="AO54" s="14"/>
     </row>
-    <row r="55" spans="1:41" ht="20" customHeight="1">
+    <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -13535,7 +12597,7 @@
       <c r="AN55" s="1"/>
       <c r="AO55" s="14"/>
     </row>
-    <row r="56" spans="1:41" ht="20" customHeight="1">
+    <row r="56" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -13578,7 +12640,7 @@
       <c r="AN56" s="1"/>
       <c r="AO56" s="14"/>
     </row>
-    <row r="57" spans="1:41" ht="20" customHeight="1">
+    <row r="57" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="22"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -13621,7 +12683,7 @@
       <c r="AN57" s="1"/>
       <c r="AO57" s="14"/>
     </row>
-    <row r="58" spans="1:41" ht="20" customHeight="1">
+    <row r="58" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="22"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -13664,7 +12726,7 @@
       <c r="AN58" s="1"/>
       <c r="AO58" s="14"/>
     </row>
-    <row r="59" spans="1:41" ht="20" customHeight="1">
+    <row r="59" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="22"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -13707,7 +12769,7 @@
       <c r="AN59" s="1"/>
       <c r="AO59" s="14"/>
     </row>
-    <row r="60" spans="1:41" ht="20" customHeight="1">
+    <row r="60" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="22"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -13750,7 +12812,7 @@
       <c r="AN60" s="1"/>
       <c r="AO60" s="14"/>
     </row>
-    <row r="61" spans="1:41" ht="20" customHeight="1">
+    <row r="61" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="23"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -13795,12 +12857,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -13812,10 +12868,16 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/詳細設計書/詳細設計書_ログイン画面.xlsx
+++ b/docs/詳細設計書/詳細設計書_ログイン画面.xlsx
@@ -5,9 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DIGITAL OJT\詳細設計書修正\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0466FC2F-90D3-44DB-8E43-F4DA4E1BF851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
@@ -18,6 +19,7 @@
     <sheet name="【補足】認証フロー" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面イメージ!$A$1:$AO$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">機能概要!$A$1:$AO$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -471,6 +473,40 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>管理者IDとパスワードの組み合わせがDBに存在しない文字列が入力された状態で「LOGIN」ボタンが押下された場合、エラーメッセージを出力する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -731,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,42 +900,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,6 +927,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,11 +978,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,37 +1002,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,16 +1026,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,17 +1044,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,6 +1387,50 @@
         <a:xfrm>
           <a:off x="673099" y="2044700"/>
           <a:ext cx="11366501" cy="5080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A340C2-CF1C-C055-A098-548F7B0A8694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="8128000"/>
+          <a:ext cx="10820400" cy="5729056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6180,255 +6263,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="53" t="s">
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="52" t="s">
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="45" t="s">
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="52" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="50">
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="58">
         <v>45566</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="52" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="52" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="45" t="s">
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="52" t="s">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="52" t="s">
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="52" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="45" t="s">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47" t="s">
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
     </row>
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
@@ -6772,24 +6855,24 @@
       <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="47" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="47"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="24" t="s">
         <v>14</v>
       </c>
@@ -6802,39 +6885,39 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="48" t="s">
+      <c r="Q20" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
     </row>
     <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="45">
+      <c r="A21" s="57">
         <v>1</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="17" t="s">
         <v>38</v>
       </c>
@@ -6845,10 +6928,10 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="45"/>
+      <c r="L21" s="57"/>
       <c r="M21" s="20" t="s">
         <v>27</v>
       </c>
@@ -6888,8 +6971,8 @@
       <c r="AO21" s="19"/>
     </row>
     <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -6898,8 +6981,8 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -6931,8 +7014,8 @@
       <c r="AO22" s="19"/>
     </row>
     <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -6941,8 +7024,8 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -6974,8 +7057,8 @@
       <c r="AO23" s="19"/>
     </row>
     <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -6984,8 +7067,8 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -7017,8 +7100,8 @@
       <c r="AO24" s="19"/>
     </row>
     <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -7027,8 +7110,8 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -7060,8 +7143,8 @@
       <c r="AO25" s="19"/>
     </row>
     <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -7070,8 +7153,8 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -7103,8 +7186,8 @@
       <c r="AO26" s="19"/>
     </row>
     <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -7113,8 +7196,8 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -7146,8 +7229,8 @@
       <c r="AO27" s="19"/>
     </row>
     <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -7156,8 +7239,8 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -7189,8 +7272,8 @@
       <c r="AO28" s="19"/>
     </row>
     <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -7199,8 +7282,8 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -7232,8 +7315,8 @@
       <c r="AO29" s="19"/>
     </row>
     <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -7242,8 +7325,8 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -7275,8 +7358,8 @@
       <c r="AO30" s="19"/>
     </row>
     <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -7285,8 +7368,8 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -7318,8 +7401,8 @@
       <c r="AO31" s="19"/>
     </row>
     <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -7328,8 +7411,8 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -7361,8 +7444,8 @@
       <c r="AO32" s="19"/>
     </row>
     <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -7405,12 +7488,38 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="W5:AL5"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="Q20:AO20"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -7422,38 +7531,12 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A5:V5"/>
-    <mergeCell ref="W5:AL5"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="Q20:AO20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,7 +7550,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
@@ -7482,227 +7565,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="52" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="53" t="s">
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="52" t="s">
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="45" t="s">
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="52" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="50">
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="58">
         <v>45566</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="52" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="53" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="52" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="45" t="s">
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="52" t="s">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="45" t="s">
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="52" t="s">
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="50">
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="58">
         <v>45614</v>
       </c>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="52" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="45" t="s">
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="65" t="s">
         <v>34</v>
       </c>
@@ -7739,51 +7822,51 @@
       <c r="AO5" s="11"/>
     </row>
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
       <c r="AL6" s="69"/>
-      <c r="AM6" s="47" t="s">
+      <c r="AM6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
     </row>
     <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
@@ -8838,19 +8921,141 @@
       <c r="AM31" s="6"/>
       <c r="AO31" s="7"/>
     </row>
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="105"/>
+    </row>
+    <row r="33" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="105"/>
+    </row>
+    <row r="34" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="105"/>
+    </row>
+    <row r="35" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+    </row>
+    <row r="36" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="105"/>
+    </row>
+    <row r="37" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="105"/>
+    </row>
+    <row r="38" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="105"/>
+      <c r="AO38" s="105"/>
+    </row>
+    <row r="39" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="105"/>
+      <c r="AO39" s="105"/>
+    </row>
+    <row r="40" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="105"/>
+      <c r="AO40" s="105"/>
+    </row>
+    <row r="41" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="105"/>
+      <c r="AO41" s="105"/>
+    </row>
+    <row r="42" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="105"/>
+      <c r="AO42" s="105"/>
+    </row>
+    <row r="43" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="105"/>
+      <c r="AO43" s="105"/>
+    </row>
+    <row r="44" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="105"/>
+      <c r="AO44" s="105"/>
+    </row>
+    <row r="45" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="105"/>
+      <c r="AO45" s="105"/>
+    </row>
+    <row r="46" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="105"/>
+      <c r="AO46" s="105"/>
+    </row>
+    <row r="47" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM47" s="6"/>
+      <c r="AN47" s="105"/>
+      <c r="AO47" s="105"/>
+    </row>
+    <row r="48" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="105"/>
+      <c r="AO48" s="105"/>
+    </row>
+    <row r="49" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="105"/>
+      <c r="AO49" s="105"/>
+    </row>
+    <row r="50" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="105"/>
+      <c r="AO50" s="105"/>
+    </row>
+    <row r="51" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="105"/>
+      <c r="AO51" s="105"/>
+    </row>
+    <row r="52" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="105"/>
+      <c r="AO52" s="105"/>
+    </row>
+    <row r="53" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="105"/>
+      <c r="AO53" s="105"/>
+    </row>
+    <row r="54" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="105"/>
+      <c r="AO54" s="105"/>
+    </row>
+    <row r="55" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="105"/>
+      <c r="AO55" s="105"/>
+    </row>
+    <row r="56" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="105"/>
+      <c r="AO56" s="105"/>
+    </row>
+    <row r="57" spans="39:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="105"/>
+      <c r="AO57" s="105"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AM6:AO6"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
@@ -8863,6 +9068,17 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:AL6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8890,226 +9106,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="77" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="53" t="s">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="86" t="s">
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="70" t="s">
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="86" t="s">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="80">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="86">
         <v>45566</v>
       </c>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="82"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="100"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="77" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="53" t="s">
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="85"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="103"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="77" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="46" t="s">
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="86" t="s">
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="70" t="s">
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="86" t="s">
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="80">
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="86">
         <v>45614</v>
       </c>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="97"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="88"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="77" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="46" t="s">
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="91"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="100"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="91"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="69"/>
       <c r="D5" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="49"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="69"/>
       <c r="J5" s="66" t="s">
         <v>34</v>
@@ -9147,60 +9363,60 @@
       <c r="AO5" s="11"/>
     </row>
     <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
       <c r="AL6" s="69"/>
-      <c r="AM6" s="47" t="s">
+      <c r="AM6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
     </row>
     <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="21"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -9225,25 +9441,25 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="13"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="71"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="79"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
     <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="22"/>
       <c r="I8" s="1" t="s">
         <v>39</v>
@@ -9270,25 +9486,25 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="94"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="72"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
     <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -9313,25 +9529,25 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="94"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="72"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
     <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
       <c r="J10" s="1" t="s">
@@ -9358,25 +9574,25 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="94"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="72"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
     <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="22"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -9401,25 +9617,25 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="94"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="72"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
     <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="22"/>
       <c r="I12" s="1" t="s">
         <v>41</v>
@@ -9446,25 +9662,25 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="93"/>
-      <c r="AH12" s="93"/>
-      <c r="AI12" s="93"/>
-      <c r="AJ12" s="93"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="94"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="72"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
     <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="22"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9489,25 +9705,25 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="94"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="72"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
     <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="22"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
@@ -9534,25 +9750,25 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="94"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="72"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
     <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="22"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -9579,25 +9795,25 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="94"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="72"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
     <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="22"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -9624,25 +9840,25 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="94"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="72"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
     <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="22"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -9667,25 +9883,25 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="94"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="72"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
     <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="92"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="22"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -9712,25 +9928,25 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="94"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="72"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
     <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="92"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="22"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9757,25 +9973,25 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="94"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="72"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
     <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="22"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -9800,25 +10016,25 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="94"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="72"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
     <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="92"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="22"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -9845,25 +10061,25 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="94"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="72"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
     <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="92"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -9890,25 +10106,25 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="93"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="93"/>
-      <c r="AK22" s="93"/>
-      <c r="AL22" s="94"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="72"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
     <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="92"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="22"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -9933,25 +10149,25 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="93"/>
-      <c r="AL23" s="94"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="72"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
     <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="92"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="22"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -9978,25 +10194,25 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-      <c r="AK24" s="93"/>
-      <c r="AL24" s="94"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="72"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
     <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="92"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="22"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -10023,25 +10239,25 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="93"/>
-      <c r="AK25" s="93"/>
-      <c r="AL25" s="94"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="72"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
     <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="92"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="22"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -10066,25 +10282,25 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="93"/>
-      <c r="AL26" s="94"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="72"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
     <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="92"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -10109,25 +10325,25 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="93"/>
-      <c r="AK27" s="93"/>
-      <c r="AL27" s="94"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="71"/>
+      <c r="AL27" s="72"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
     <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -10152,25 +10368,25 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="93"/>
-      <c r="AK28" s="93"/>
-      <c r="AL28" s="94"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="72"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
     <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="23"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -10195,19 +10411,72 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="16"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="74"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
+      <c r="AJ29" s="76"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="77"/>
       <c r="AM29" s="15"/>
       <c r="AN29" s="15"/>
       <c r="AO29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="AL3:AO4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="AF23:AL23"/>
     <mergeCell ref="A24:G24"/>
@@ -10224,59 +10493,6 @@
     <mergeCell ref="AF21:AL21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="AL3:AO4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="AF7:AL7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AD4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10291,7 +10507,7 @@
   </sheetPr>
   <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
@@ -10303,206 +10519,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="77" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="53" t="s">
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="86" t="s">
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="70" t="s">
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="86" t="s">
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="80">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="86">
         <v>45566</v>
       </c>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="82"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="100"/>
     </row>
     <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="77" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="53" t="s">
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="90"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="85"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="103"/>
     </row>
     <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="77" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="46" t="s">
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="86" t="s">
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="86" t="s">
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="97"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="88"/>
     </row>
     <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="77" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="46" t="s">
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="91"/>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="100"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="91"/>
     </row>
     <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="21"/>
@@ -12857,6 +13073,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -12868,12 +13090,6 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
